--- a/Code/Results/Cases/Case_2_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.40200086744494</v>
+        <v>11.83761344122534</v>
       </c>
       <c r="C2">
-        <v>7.737817891986349</v>
+        <v>11.00155019027585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.436811863528586</v>
+        <v>12.71584953030981</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>19.03033411699973</v>
+        <v>29.19859257109157</v>
       </c>
       <c r="H2">
-        <v>8.642266880162268</v>
+        <v>14.59936334985623</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.65272802196249</v>
+        <v>8.240296873008354</v>
       </c>
       <c r="L2">
-        <v>6.730049463268351</v>
+        <v>9.485956752826516</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.52593216132904</v>
+        <v>22.24187474788997</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.44976361408875</v>
+        <v>11.52843795131523</v>
       </c>
       <c r="C3">
-        <v>7.829591903371838</v>
+        <v>11.03809021072026</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.331475408281298</v>
+        <v>12.73696528279488</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>19.36236486252145</v>
+        <v>29.39869849743449</v>
       </c>
       <c r="H3">
-        <v>8.790715311676619</v>
+        <v>14.66093121901194</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.05499063312008</v>
+        <v>8.003531196468225</v>
       </c>
       <c r="L3">
-        <v>6.521056334352552</v>
+        <v>9.467616026833815</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.78213801542534</v>
+        <v>22.35962859529359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83006731850227</v>
+        <v>11.33557391989793</v>
       </c>
       <c r="C4">
-        <v>7.888652509978463</v>
+        <v>11.06192649742061</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.272047511338581</v>
+        <v>12.75252592020799</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>19.59257281027461</v>
+        <v>29.53061050858843</v>
       </c>
       <c r="H4">
-        <v>8.886360703247004</v>
+        <v>14.70095236703374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.67053050944436</v>
+        <v>7.854890680898942</v>
       </c>
       <c r="L4">
-        <v>6.392345403892367</v>
+        <v>9.457872896246771</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.95008481002713</v>
+        <v>22.43648184753093</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.56869249154389</v>
+        <v>11.25633047948722</v>
       </c>
       <c r="C5">
-        <v>7.913398731039464</v>
+        <v>11.07199292503824</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.249150633391956</v>
+        <v>12.75951934589662</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>19.69262329970032</v>
+        <v>29.58663417217993</v>
       </c>
       <c r="H5">
-        <v>8.926448146003715</v>
+        <v>14.71781992696755</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.50956796820536</v>
+        <v>7.793579404771825</v>
       </c>
       <c r="L5">
-        <v>6.339872644469489</v>
+        <v>9.454287314174604</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.02110236067717</v>
+        <v>22.46894506644487</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.52475621358316</v>
+        <v>11.24313631267511</v>
       </c>
       <c r="C6">
-        <v>7.917548721744168</v>
+        <v>11.07368578739623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.245428316518309</v>
+        <v>12.76071998628646</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>19.70960268121228</v>
+        <v>29.5960736866469</v>
       </c>
       <c r="H6">
-        <v>8.933171215232722</v>
+        <v>14.72065453610075</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.48258423251156</v>
+        <v>7.783356589185848</v>
       </c>
       <c r="L6">
-        <v>6.331160549555687</v>
+        <v>9.453715257688451</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.03304782628202</v>
+        <v>22.47440471725459</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82657818193488</v>
+        <v>11.3345076936793</v>
       </c>
       <c r="C7">
-        <v>7.888983502555404</v>
+        <v>11.0620608266907</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.271733371634092</v>
+        <v>12.75261759522182</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>19.59389735406187</v>
+        <v>29.53135688664745</v>
       </c>
       <c r="H7">
-        <v>8.886896861757387</v>
+        <v>14.70117758591992</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.66837694916694</v>
+        <v>7.854066695294525</v>
       </c>
       <c r="L7">
-        <v>6.391637723818845</v>
+        <v>9.45782297784457</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.95103226042464</v>
+        <v>22.43691502181175</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.08091407630465</v>
+        <v>11.73170357652461</v>
       </c>
       <c r="C8">
-        <v>7.768896859264942</v>
+        <v>11.01385896024576</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.399403879099216</v>
+        <v>12.72259140595024</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>19.13911211763228</v>
+        <v>29.26570775334213</v>
       </c>
       <c r="H8">
-        <v>8.692505811535211</v>
+        <v>14.62013205455302</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.45030023529468</v>
+        <v>8.159385219062415</v>
       </c>
       <c r="L8">
-        <v>6.658113152851502</v>
+        <v>9.479319701434131</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.61200351738055</v>
+        <v>22.28153168635237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26463101414707</v>
+        <v>12.48198393289533</v>
       </c>
       <c r="C9">
-        <v>7.555083436824452</v>
+        <v>10.93041375836401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.691218495282483</v>
+        <v>12.68431264016031</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.47484042816859</v>
+        <v>28.81683289606589</v>
       </c>
       <c r="H9">
-        <v>8.348011943828419</v>
+        <v>14.47876490638842</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.84200499922324</v>
+        <v>8.728900668508876</v>
       </c>
       <c r="L9">
-        <v>7.174524150030054</v>
+        <v>9.53337454553011</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.03641860796647</v>
+        <v>22.01293010550816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.70340273905506</v>
+        <v>13.01011617072371</v>
       </c>
       <c r="C10">
-        <v>7.41147834919673</v>
+        <v>10.87581293186725</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.930417283925184</v>
+        <v>12.66875238506102</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>18.15287685407836</v>
+        <v>28.53137236058527</v>
       </c>
       <c r="H10">
-        <v>8.118935655277831</v>
+        <v>14.38555639562637</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.77499713599155</v>
+        <v>9.125516645975924</v>
       </c>
       <c r="L10">
-        <v>7.546489734339253</v>
+        <v>9.580131585533318</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.67554598158159</v>
+        <v>21.83758125749166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.32258617770329</v>
+        <v>13.24430988101386</v>
       </c>
       <c r="C11">
-        <v>7.349150325443513</v>
+        <v>10.85241990326206</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.044469918664396</v>
+        <v>12.6643987217668</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>18.04884138678177</v>
+        <v>28.41122295159762</v>
       </c>
       <c r="H11">
-        <v>8.020381457373146</v>
+        <v>14.34545589136057</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.17961407491438</v>
+        <v>9.300486643299859</v>
       </c>
       <c r="L11">
-        <v>7.713433367113701</v>
+        <v>9.60288135460741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.52678775652943</v>
+        <v>21.76258350015423</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.55202634087075</v>
+        <v>13.33204411693814</v>
       </c>
       <c r="C12">
-        <v>7.32598709131836</v>
+        <v>10.84376864495668</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.088396763189069</v>
+        <v>12.66314133456098</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>18.01609731644333</v>
+        <v>28.36712929619947</v>
       </c>
       <c r="H12">
-        <v>7.983918587535206</v>
+        <v>14.33060092921311</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.32996451991013</v>
+        <v>9.365906360711765</v>
       </c>
       <c r="L12">
-        <v>7.776278484963929</v>
+        <v>9.611704183123445</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.47285729496004</v>
+        <v>21.73486970369989</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.5028352783911</v>
+        <v>13.31319240594157</v>
       </c>
       <c r="C13">
-        <v>7.330956046133348</v>
+        <v>10.84562264415381</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.078903788963387</v>
+        <v>12.66339474558472</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>18.02284460357663</v>
+        <v>28.37656306215178</v>
       </c>
       <c r="H13">
-        <v>7.991732609223937</v>
+        <v>14.33378553313477</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.29771171241065</v>
+        <v>9.35185510236769</v>
       </c>
       <c r="L13">
-        <v>7.762760926618033</v>
+        <v>9.609794858028389</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.48436222900255</v>
+        <v>21.74080783834748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.34156290978432</v>
+        <v>13.2515472927307</v>
       </c>
       <c r="C14">
-        <v>7.347235824726164</v>
+        <v>10.85170401057665</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.048069118399097</v>
+        <v>12.6642874384809</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>18.04601100254815</v>
+        <v>28.40756714715667</v>
       </c>
       <c r="H14">
-        <v>8.017364173718285</v>
+        <v>14.34422714966984</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.19204108910852</v>
+        <v>9.305885837390001</v>
       </c>
       <c r="L14">
-        <v>7.718611391310626</v>
+        <v>9.603603074071525</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.52230161018534</v>
+        <v>21.76028971387694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.24212517112819</v>
+        <v>13.21366196128395</v>
       </c>
       <c r="C15">
-        <v>7.357265084802195</v>
+        <v>10.85545598451401</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.029277560827854</v>
+        <v>12.66488517077698</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>18.06108391444014</v>
+        <v>28.42674117788169</v>
       </c>
       <c r="H15">
-        <v>8.033177338295658</v>
+        <v>14.35066592988958</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.12694065111915</v>
+        <v>9.277617755963332</v>
       </c>
       <c r="L15">
-        <v>7.691518687513931</v>
+        <v>9.59983736665497</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.54585911348817</v>
+        <v>21.77231230530243</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6622309588019</v>
+        <v>12.99468228181471</v>
       </c>
       <c r="C16">
-        <v>7.415612618960112</v>
+        <v>10.87737074679892</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.923067778908568</v>
+        <v>12.66909169252977</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>18.16057636613852</v>
+        <v>28.53942046423421</v>
       </c>
       <c r="H16">
-        <v>8.125493835915529</v>
+        <v>14.38822329979568</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.74815390625606</v>
+        <v>9.113967522221216</v>
       </c>
       <c r="L16">
-        <v>7.535529821743378</v>
+        <v>9.578674206210406</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.68559311180034</v>
+        <v>21.84257854118074</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29747169769505</v>
+        <v>12.85873574508749</v>
       </c>
       <c r="C17">
-        <v>7.452180221248546</v>
+        <v>10.89118442616292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.859242599336744</v>
+        <v>12.67236979554604</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>18.23286610298352</v>
+        <v>28.61103787652776</v>
       </c>
       <c r="H17">
-        <v>8.183604843604567</v>
+        <v>14.41185232496258</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.51068975786905</v>
+        <v>9.012137011228411</v>
       </c>
       <c r="L17">
-        <v>7.439219976585779</v>
+        <v>9.566066955752383</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.77538708595907</v>
+        <v>21.88690640341778</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.08434426746476</v>
+        <v>12.7799771082631</v>
       </c>
       <c r="C18">
-        <v>7.473494657396038</v>
+        <v>10.89926575204245</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.823026287897012</v>
+        <v>12.67451178887952</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>18.27840468679781</v>
+        <v>28.65314357444472</v>
       </c>
       <c r="H18">
-        <v>8.21755790964677</v>
+        <v>14.42565968401112</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.37224307297891</v>
+        <v>8.953056412091641</v>
       </c>
       <c r="L18">
-        <v>7.383614278977591</v>
+        <v>9.558955183888838</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.82847188135533</v>
+        <v>21.91285149921022</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01161003643126</v>
+        <v>12.75321613518515</v>
       </c>
       <c r="C19">
-        <v>7.480759522560501</v>
+        <v>10.90202533870006</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.810849421951836</v>
+        <v>12.67528110183901</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>18.29448673759808</v>
+        <v>28.66755644240859</v>
       </c>
       <c r="H19">
-        <v>8.229143459032526</v>
+        <v>14.43037183256578</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.32504812659437</v>
+        <v>8.932966799486968</v>
       </c>
       <c r="L19">
-        <v>7.364752474914396</v>
+        <v>9.556571376295166</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.84668705238695</v>
+        <v>21.92171314751062</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.33664499015797</v>
+        <v>12.87326663696576</v>
       </c>
       <c r="C20">
-        <v>7.448258327288496</v>
+        <v>10.88969985907961</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.865985858536172</v>
+        <v>12.67199429102287</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>18.2247569994586</v>
+        <v>28.60331950239379</v>
       </c>
       <c r="H20">
-        <v>8.177363759540707</v>
+        <v>14.40931456513365</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.53616127802091</v>
+        <v>9.023030270887629</v>
       </c>
       <c r="L20">
-        <v>7.449494504461998</v>
+        <v>9.567394606557064</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.76567828490884</v>
+        <v>21.88214116649357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.38906866809694</v>
+        <v>13.26968032934643</v>
       </c>
       <c r="C21">
-        <v>7.34244207622851</v>
+        <v>10.84991214823552</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.057106121686386</v>
+        <v>12.66401462002445</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>18.03902149225733</v>
+        <v>28.39842231591956</v>
       </c>
       <c r="H21">
-        <v>8.009811905734935</v>
+        <v>14.34115123600843</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.2231571063992</v>
+        <v>9.319411257413675</v>
       </c>
       <c r="L21">
-        <v>7.731589641378949</v>
+        <v>9.605416145949263</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.51109115218078</v>
+        <v>21.75454878722939</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.04758627192422</v>
+        <v>13.52319151040626</v>
       </c>
       <c r="C22">
-        <v>7.27584847223061</v>
+        <v>10.82511585919242</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.186305644399054</v>
+        <v>12.66107954738689</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>17.95666683658431</v>
+        <v>28.27269958036476</v>
       </c>
       <c r="H22">
-        <v>7.905330209086999</v>
+        <v>14.29852713044328</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.65542090642746</v>
+        <v>9.5209080838242</v>
       </c>
       <c r="L22">
-        <v>7.913764751599834</v>
+        <v>9.631475316647281</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.35879928784243</v>
+        <v>21.67515988139119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.69878792161047</v>
+        <v>13.3884215718642</v>
       </c>
       <c r="C23">
-        <v>7.311153314377732</v>
+        <v>10.83823984710665</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.116962209895501</v>
+        <v>12.6624376604391</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>17.99686488912496</v>
+        <v>28.33904804601441</v>
       </c>
       <c r="H23">
-        <v>7.960618120434523</v>
+        <v>14.32110050604629</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.42624889539903</v>
+        <v>9.407909511865622</v>
       </c>
       <c r="L23">
-        <v>7.816748782969183</v>
+        <v>9.617457990196968</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.43872403841382</v>
+        <v>21.71716507460704</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.3189454084838</v>
+        <v>12.86669908716123</v>
       </c>
       <c r="C24">
-        <v>7.450030508996996</v>
+        <v>10.89037059679143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.862935742126014</v>
+        <v>12.67216325491056</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>18.22841077544289</v>
+        <v>28.60680607718358</v>
       </c>
       <c r="H24">
-        <v>8.180183661640154</v>
+        <v>14.4104611925537</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.52465159919672</v>
+        <v>9.018107096341993</v>
       </c>
       <c r="L24">
-        <v>7.444850121494071</v>
+        <v>9.566793950698878</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.77006309686362</v>
+        <v>21.88429409596327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.70315965427901</v>
+        <v>12.28268847572323</v>
       </c>
       <c r="C25">
-        <v>7.610579996839147</v>
+        <v>10.9518068076248</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.607874357455437</v>
+        <v>12.6924613654821</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.62745860310648</v>
+        <v>28.93051036271637</v>
       </c>
       <c r="H25">
-        <v>8.437121707891567</v>
+        <v>14.51513378470868</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.48105549713323</v>
+        <v>8.578395344688493</v>
       </c>
       <c r="L25">
-        <v>7.035883813823404</v>
+        <v>9.517498072188058</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.18184360981945</v>
+        <v>22.08173076231023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83761344122534</v>
+        <v>14.40200086744488</v>
       </c>
       <c r="C2">
-        <v>11.00155019027585</v>
+        <v>7.737817891986477</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.71584953030981</v>
+        <v>8.436811863528762</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>29.19859257109157</v>
+        <v>19.03033411699966</v>
       </c>
       <c r="H2">
-        <v>14.59936334985623</v>
+        <v>8.642266880162335</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.240296873008354</v>
+        <v>11.65272802196247</v>
       </c>
       <c r="L2">
-        <v>9.485956752826516</v>
+        <v>6.730049463268411</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.24187474788997</v>
+        <v>13.52593216132905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.52843795131523</v>
+        <v>13.44976361408875</v>
       </c>
       <c r="C3">
-        <v>11.03809021072026</v>
+        <v>7.829591903371834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.73696528279488</v>
+        <v>8.331475408281253</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>29.39869849743449</v>
+        <v>19.36236486252146</v>
       </c>
       <c r="H3">
-        <v>14.66093121901194</v>
+        <v>8.790715311676619</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.003531196468225</v>
+        <v>11.05499063312008</v>
       </c>
       <c r="L3">
-        <v>9.467616026833815</v>
+        <v>6.521056334352513</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.35962859529359</v>
+        <v>13.78213801542534</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.33557391989793</v>
+        <v>12.83006731850229</v>
       </c>
       <c r="C4">
-        <v>11.06192649742061</v>
+        <v>7.888652509978458</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.75252592020799</v>
+        <v>8.272047511338688</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>29.53061050858843</v>
+        <v>19.59257281027459</v>
       </c>
       <c r="H4">
-        <v>14.70095236703374</v>
+        <v>8.88636070324687</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.854890680898942</v>
+        <v>10.67053050944439</v>
       </c>
       <c r="L4">
-        <v>9.457872896246771</v>
+        <v>6.392345403892451</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.43648184753093</v>
+        <v>13.95008481002706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25633047948722</v>
+        <v>12.56869249154392</v>
       </c>
       <c r="C5">
-        <v>11.07199292503824</v>
+        <v>7.913398731039456</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.75951934589662</v>
+        <v>8.249150633392114</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>29.58663417217993</v>
+        <v>19.69262329970068</v>
       </c>
       <c r="H5">
-        <v>14.71781992696755</v>
+        <v>8.92644814600372</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.793579404771825</v>
+        <v>10.50956796820538</v>
       </c>
       <c r="L5">
-        <v>9.454287314174604</v>
+        <v>6.339872644469549</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.46894506644487</v>
+        <v>14.02110236067727</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.24313631267511</v>
+        <v>12.52475621358316</v>
       </c>
       <c r="C6">
-        <v>11.07368578739623</v>
+        <v>7.917548721744037</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.76071998628646</v>
+        <v>8.245428316518327</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>29.5960736866469</v>
+        <v>19.70960268121228</v>
       </c>
       <c r="H6">
-        <v>14.72065453610075</v>
+        <v>8.933171215232603</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.783356589185848</v>
+        <v>10.4825842325116</v>
       </c>
       <c r="L6">
-        <v>9.453715257688451</v>
+        <v>6.33116054955569</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.47440471725459</v>
+        <v>14.03304782628197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3345076936793</v>
+        <v>12.82657818193494</v>
       </c>
       <c r="C7">
-        <v>11.0620608266907</v>
+        <v>7.8889835025554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.75261759522182</v>
+        <v>8.271733371634097</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.53135688664745</v>
+        <v>19.59389735406164</v>
       </c>
       <c r="H7">
-        <v>14.70117758591992</v>
+        <v>8.886896861757322</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.854066695294525</v>
+        <v>10.668376949167</v>
       </c>
       <c r="L7">
-        <v>9.45782297784457</v>
+        <v>6.39163772381885</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.43691502181175</v>
+        <v>13.95103226042448</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73170357652461</v>
+        <v>14.08091407630465</v>
       </c>
       <c r="C8">
-        <v>11.01385896024576</v>
+        <v>7.768896859265076</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.72259140595024</v>
+        <v>8.399403879099124</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>29.26570775334213</v>
+        <v>19.13911211763205</v>
       </c>
       <c r="H8">
-        <v>14.62013205455302</v>
+        <v>8.692505811535147</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.159385219062415</v>
+        <v>11.45030023529466</v>
       </c>
       <c r="L8">
-        <v>9.479319701434131</v>
+        <v>6.658113152851467</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.28153168635237</v>
+        <v>13.6120035173804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.48198393289533</v>
+        <v>16.26463101414701</v>
       </c>
       <c r="C9">
-        <v>10.93041375836401</v>
+        <v>7.555083436824715</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.68431264016031</v>
+        <v>8.691218495282476</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>28.81683289606589</v>
+        <v>18.47484042816878</v>
       </c>
       <c r="H9">
-        <v>14.47876490638842</v>
+        <v>8.348011943828412</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.728900668508876</v>
+        <v>12.84200499922322</v>
       </c>
       <c r="L9">
-        <v>9.53337454553011</v>
+        <v>7.174524150029995</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.01293010550816</v>
+        <v>13.03641860796654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.01011617072371</v>
+        <v>17.70340273905503</v>
       </c>
       <c r="C10">
-        <v>10.87581293186725</v>
+        <v>7.411478349197247</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.66875238506102</v>
+        <v>8.93041728392523</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>28.53137236058527</v>
+        <v>18.15287685407804</v>
       </c>
       <c r="H10">
-        <v>14.38555639562637</v>
+        <v>8.118935655277772</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.125516645975924</v>
+        <v>13.77499713599161</v>
       </c>
       <c r="L10">
-        <v>9.580131585533318</v>
+        <v>7.546489734339231</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.83758125749166</v>
+        <v>12.67554598158138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.24430988101386</v>
+        <v>18.32258617770325</v>
       </c>
       <c r="C11">
-        <v>10.85241990326206</v>
+        <v>7.349150325443508</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.6643987217668</v>
+        <v>9.044469918664424</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>28.41122295159762</v>
+        <v>18.0488413867818</v>
       </c>
       <c r="H11">
-        <v>14.34545589136057</v>
+        <v>8.020381457373135</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.300486643299859</v>
+        <v>14.17961407491438</v>
       </c>
       <c r="L11">
-        <v>9.60288135460741</v>
+        <v>7.713433367113684</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.76258350015423</v>
+        <v>12.52678775652941</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.33204411693814</v>
+        <v>18.55202634087075</v>
       </c>
       <c r="C12">
-        <v>10.84376864495668</v>
+        <v>7.325987091318497</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.66314133456098</v>
+        <v>9.088396763189095</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>28.36712929619947</v>
+        <v>18.01609731644321</v>
       </c>
       <c r="H12">
-        <v>14.33060092921311</v>
+        <v>7.983918587535134</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.365906360711765</v>
+        <v>14.32996451991017</v>
       </c>
       <c r="L12">
-        <v>9.611704183123445</v>
+        <v>7.776278484963904</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.73486970369989</v>
+        <v>12.47285729495998</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.31319240594157</v>
+        <v>18.50283527839102</v>
       </c>
       <c r="C13">
-        <v>10.84562264415381</v>
+        <v>7.330956046133616</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.66339474558472</v>
+        <v>9.078903788963483</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>28.37656306215178</v>
+        <v>18.02284460357678</v>
       </c>
       <c r="H13">
-        <v>14.33378553313477</v>
+        <v>7.991732609224068</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.35185510236769</v>
+        <v>14.29771171241059</v>
       </c>
       <c r="L13">
-        <v>9.609794858028389</v>
+        <v>7.762760926618054</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.74080783834748</v>
+        <v>12.48436222900271</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.2515472927307</v>
+        <v>18.34156290978432</v>
       </c>
       <c r="C14">
-        <v>10.85170401057665</v>
+        <v>7.34723582472667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.6642874384809</v>
+        <v>9.048069118399209</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>28.40756714715667</v>
+        <v>18.04601100254839</v>
       </c>
       <c r="H14">
-        <v>14.34422714966984</v>
+        <v>8.017364173718349</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.305885837390001</v>
+        <v>14.19204108910861</v>
       </c>
       <c r="L14">
-        <v>9.603603074071525</v>
+        <v>7.718611391310633</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.76028971387694</v>
+        <v>12.5223016101855</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.21366196128395</v>
+        <v>18.24212517112826</v>
       </c>
       <c r="C15">
-        <v>10.85545598451401</v>
+        <v>7.357265084801806</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.66488517077698</v>
+        <v>9.029277560827847</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>28.42674117788169</v>
+        <v>18.06108391444004</v>
       </c>
       <c r="H15">
-        <v>14.35066592988958</v>
+        <v>8.033177338295589</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.277617755963332</v>
+        <v>14.12694065111917</v>
       </c>
       <c r="L15">
-        <v>9.59983736665497</v>
+        <v>7.691518687513958</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.77231230530243</v>
+        <v>12.54585911348802</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.99468228181471</v>
+        <v>17.6622309588019</v>
       </c>
       <c r="C16">
-        <v>10.87737074679892</v>
+        <v>7.415612618960009</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.66909169252977</v>
+        <v>8.923067778908589</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>28.53942046423421</v>
+        <v>18.16057636613846</v>
       </c>
       <c r="H16">
-        <v>14.38822329979568</v>
+        <v>8.125493835915398</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.113967522221216</v>
+        <v>13.74815390625609</v>
       </c>
       <c r="L16">
-        <v>9.578674206210406</v>
+        <v>7.535529821743409</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.84257854118074</v>
+        <v>12.68559311180026</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.85873574508749</v>
+        <v>17.29747169769505</v>
       </c>
       <c r="C17">
-        <v>10.89118442616292</v>
+        <v>7.452180221248418</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.67236979554604</v>
+        <v>8.859242599336701</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>28.61103787652776</v>
+        <v>18.2328661029834</v>
       </c>
       <c r="H17">
-        <v>14.41185232496258</v>
+        <v>8.183604843604561</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.012137011228411</v>
+        <v>13.51068975786903</v>
       </c>
       <c r="L17">
-        <v>9.566066955752383</v>
+        <v>7.439219976585763</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.88690640341778</v>
+        <v>12.77538708595903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.7799771082631</v>
+        <v>17.08434426746478</v>
       </c>
       <c r="C18">
-        <v>10.89926575204245</v>
+        <v>7.473494657396043</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.67451178887952</v>
+        <v>8.823026287896976</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>28.65314357444472</v>
+        <v>18.27840468679788</v>
       </c>
       <c r="H18">
-        <v>14.42565968401112</v>
+        <v>8.217557909646835</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.953056412091641</v>
+        <v>13.37224307297893</v>
       </c>
       <c r="L18">
-        <v>9.558955183888838</v>
+        <v>7.383614278977568</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.91285149921022</v>
+        <v>12.82847188135539</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.75321613518515</v>
+        <v>17.01161003643132</v>
       </c>
       <c r="C19">
-        <v>10.90202533870006</v>
+        <v>7.480759522560358</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.67528110183901</v>
+        <v>8.810849421951749</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>28.66755644240859</v>
+        <v>18.29448673759808</v>
       </c>
       <c r="H19">
-        <v>14.43037183256578</v>
+        <v>8.229143459032359</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.932966799486968</v>
+        <v>13.32504812659439</v>
       </c>
       <c r="L19">
-        <v>9.556571376295166</v>
+        <v>7.364752474914369</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.92171314751062</v>
+        <v>12.84668705238685</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.87326663696576</v>
+        <v>17.33664499015795</v>
       </c>
       <c r="C20">
-        <v>10.88969985907961</v>
+        <v>7.448258327288896</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.67199429102287</v>
+        <v>8.865985858536146</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>28.60331950239379</v>
+        <v>18.2247569994586</v>
       </c>
       <c r="H20">
-        <v>14.40931456513365</v>
+        <v>8.177363759540643</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.023030270887629</v>
+        <v>13.53616127802094</v>
       </c>
       <c r="L20">
-        <v>9.567394606557064</v>
+        <v>7.449494504461933</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.88214116649357</v>
+        <v>12.76567828490879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.26968032934643</v>
+        <v>18.38906866809693</v>
       </c>
       <c r="C21">
-        <v>10.84991214823552</v>
+        <v>7.342442076228642</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.66401462002445</v>
+        <v>9.057106121686386</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>28.39842231591956</v>
+        <v>18.03902149225747</v>
       </c>
       <c r="H21">
-        <v>14.34115123600843</v>
+        <v>8.009811905734878</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.319411257413675</v>
+        <v>14.22315710639922</v>
       </c>
       <c r="L21">
-        <v>9.605416145949263</v>
+        <v>7.731589641378922</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.75454878722939</v>
+        <v>12.51109115218076</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.52319151040626</v>
+        <v>19.04758627192417</v>
       </c>
       <c r="C22">
-        <v>10.82511585919242</v>
+        <v>7.275848472230869</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.66107954738689</v>
+        <v>9.186305644399097</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>28.27269958036476</v>
+        <v>17.95666683658431</v>
       </c>
       <c r="H22">
-        <v>14.29852713044328</v>
+        <v>7.905330209087046</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.5209080838242</v>
+        <v>14.65542090642744</v>
       </c>
       <c r="L22">
-        <v>9.631475316647281</v>
+        <v>7.913764751599839</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.67515988139119</v>
+        <v>12.35879928784244</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.3884215718642</v>
+        <v>18.69878792161049</v>
       </c>
       <c r="C23">
-        <v>10.83823984710665</v>
+        <v>7.31115331437772</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.6624376604391</v>
+        <v>9.116962209895506</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>28.33904804601441</v>
+        <v>17.99686488912495</v>
       </c>
       <c r="H23">
-        <v>14.32110050604629</v>
+        <v>7.960618120434407</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.407909511865622</v>
+        <v>14.42624889539906</v>
       </c>
       <c r="L23">
-        <v>9.617457990196968</v>
+        <v>7.816748782969182</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.71716507460704</v>
+        <v>12.43872403841371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86669908716123</v>
+        <v>17.31894540848381</v>
       </c>
       <c r="C24">
-        <v>10.89037059679143</v>
+        <v>7.450030508997112</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.67216325491056</v>
+        <v>8.862935742125963</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>28.60680607718358</v>
+        <v>18.22841077544289</v>
       </c>
       <c r="H24">
-        <v>14.4104611925537</v>
+        <v>8.180183661640109</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.018107096341993</v>
+        <v>13.52465159919671</v>
       </c>
       <c r="L24">
-        <v>9.566793950698878</v>
+        <v>7.444850121494033</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.88429409596327</v>
+        <v>12.77006309686354</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.28268847572323</v>
+        <v>15.70315965427907</v>
       </c>
       <c r="C25">
-        <v>10.9518068076248</v>
+        <v>7.610579996839014</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.6924613654821</v>
+        <v>8.607874357455582</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>28.93051036271637</v>
+        <v>18.62745860310622</v>
       </c>
       <c r="H25">
-        <v>14.51513378470868</v>
+        <v>8.437121707891515</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.578395344688493</v>
+        <v>12.48105549713328</v>
       </c>
       <c r="L25">
-        <v>9.517498072188058</v>
+        <v>7.035883813823447</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.08173076231023</v>
+        <v>13.18184360981936</v>
       </c>
     </row>
   </sheetData>
